--- a/汽车油费报销清单.xlsx
+++ b/汽车油费报销清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>送卢苇去机场</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +25,18 @@
   </si>
   <si>
     <t>ETC 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去机场接郭晓燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油费100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,6 +440,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>42526</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
